--- a/academias/Administración de Recursos Humanos - Estadisticos 20202.xlsx
+++ b/academias/Administración de Recursos Humanos - Estadisticos 20202.xlsx
@@ -1527,16 +1527,16 @@
         <v>39</v>
       </c>
       <c r="E4">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4">
-        <v>84.62</v>
+        <v>87.18000000000001</v>
       </c>
       <c r="H4">
-        <v>15.38</v>
+        <v>12.82</v>
       </c>
       <c r="I4">
         <v>7.7</v>
